--- a/StructureDefinition-FoodAllergyModel.xlsx
+++ b/StructureDefinition-FoodAllergyModel.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="94">
   <si>
     <t>Path</t>
   </si>
@@ -143,13 +143,77 @@
     <t>Food Allergy information model</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FoodAllergyModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>FoodAllergyModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>FoodAllergyModel.patient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -241,10 +305,6 @@
   </si>
   <si>
     <t>FoodAllergyModel.reactions.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Additional text note about the allergic reaction</t>
@@ -396,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -407,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="39.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -432,7 +492,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.71875" customWidth="true" bestFit="true" hidden="true"/>
@@ -644,18 +704,18 @@
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -663,10 +723,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -678,13 +738,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -735,13 +795,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -750,23 +810,23 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -778,15 +838,17 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>37</v>
@@ -823,39 +885,39 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -863,10 +925,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -878,13 +940,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -935,13 +997,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -955,7 +1017,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -963,10 +1025,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -978,13 +1040,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1035,13 +1097,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1055,7 +1117,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1063,10 +1125,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1078,13 +1140,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1135,13 +1197,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1155,7 +1217,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1163,10 +1225,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1178,13 +1240,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1235,13 +1297,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1255,7 +1317,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1266,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1278,13 +1340,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1335,13 +1397,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1355,7 +1417,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1366,7 +1428,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1381,10 +1443,10 @@
         <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1435,13 +1497,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1455,7 +1517,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1466,7 +1528,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1478,13 +1540,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1535,13 +1597,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1555,7 +1617,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1566,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1578,13 +1640,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1635,13 +1697,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1655,7 +1717,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1666,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1678,13 +1740,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1735,13 +1797,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1755,7 +1817,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1766,7 +1828,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1778,13 +1840,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1835,13 +1897,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1850,11 +1912,211 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ14">
+  <autoFilter ref="A1:AJ16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1864,7 +2126,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
